--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C32" s="12" t="n"/>
       <c r="D32" s="6" t="n">
-        <v>1134.867</v>
+        <v>2033</v>
       </c>
       <c r="E32" s="2" t="n"/>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C33" s="12" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>1351.975</v>
+        <v>2430</v>
       </c>
       <c r="E33" s="2" t="n"/>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C34" s="12" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>1514.806</v>
+        <v>2720</v>
       </c>
       <c r="E34" s="2" t="n"/>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C35" s="12" t="n"/>
       <c r="D35" s="7" t="n">
-        <v>1632.082</v>
+        <v>2930</v>
       </c>
       <c r="E35" s="2" t="n"/>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C36" s="12" t="n"/>
       <c r="D36" s="6" t="n">
-        <v>1730.774</v>
+        <v>3100</v>
       </c>
       <c r="E36" s="2" t="n"/>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C37" s="12" t="n"/>
       <c r="D37" s="7" t="n">
-        <v>1943.316</v>
+        <v>3481</v>
       </c>
       <c r="E37" s="2" t="n"/>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C38" s="12" t="n"/>
       <c r="D38" s="6" t="n">
-        <v>2133.097</v>
+        <v>3830</v>
       </c>
       <c r="E38" s="2" t="n"/>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C39" s="12" t="n"/>
       <c r="D39" s="7" t="n">
-        <v>2288.71</v>
+        <v>4100</v>
       </c>
       <c r="E39" s="2" t="n"/>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C40" s="12" t="n"/>
       <c r="D40" s="6" t="n">
-        <v>2413.966</v>
+        <v>4320</v>
       </c>
       <c r="E40" s="2" t="n"/>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C46" s="12" t="n"/>
       <c r="D46" s="7" t="n">
-        <v>1430.925</v>
+        <v>2480</v>
       </c>
       <c r="E46" s="2" t="n"/>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C47" s="12" t="n"/>
       <c r="D47" s="7" t="n">
-        <v>1598.684</v>
+        <v>2770</v>
       </c>
       <c r="E47" s="2" t="n"/>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C48" s="12" t="n"/>
       <c r="D48" s="7" t="n">
-        <v>1754.311</v>
+        <v>3040</v>
       </c>
       <c r="E48" s="2" t="n"/>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C49" s="12" t="n"/>
       <c r="D49" s="7" t="n">
-        <v>2042.761</v>
+        <v>3540</v>
       </c>
       <c r="E49" s="2" t="n"/>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C50" s="12" t="n"/>
       <c r="D50" s="7" t="n">
-        <v>2227.991</v>
+        <v>3851</v>
       </c>
       <c r="E50" s="2" t="n"/>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C51" s="12" t="n"/>
       <c r="D51" s="7" t="n">
-        <v>2478.491</v>
+        <v>4290</v>
       </c>
       <c r="E51" s="2" t="n"/>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C52" s="12" t="n"/>
       <c r="D52" s="7" t="n">
-        <v>2789.729</v>
+        <v>4816</v>
       </c>
       <c r="E52" s="2" t="n"/>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C53" s="12" t="n"/>
       <c r="D53" s="7" t="n">
-        <v>2903.596</v>
+        <v>5020</v>
       </c>
       <c r="E53" s="2" t="n"/>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C54" s="12" t="n"/>
       <c r="D54" s="7" t="n">
-        <v>3207.238</v>
+        <v>5540</v>
       </c>
       <c r="E54" s="2" t="n"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C55" s="12" t="n"/>
       <c r="D55" s="7" t="n">
-        <v>3586.796</v>
+        <v>6190</v>
       </c>
       <c r="E55" s="2" t="n"/>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C56" s="12" t="n"/>
       <c r="D56" s="7" t="n">
-        <v>3890.443</v>
+        <v>6721</v>
       </c>
       <c r="E56" s="2" t="n"/>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C57" s="12" t="n"/>
       <c r="D57" s="7" t="n">
-        <v>4364.878</v>
+        <v>7550</v>
       </c>
       <c r="E57" s="2" t="n"/>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C58" s="12" t="n"/>
       <c r="D58" s="7" t="n">
-        <v>4782.39</v>
+        <v>8260</v>
       </c>
       <c r="E58" s="2" t="n"/>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C59" s="12" t="n"/>
       <c r="D59" s="7" t="n">
-        <v>5256.834</v>
+        <v>9050</v>
       </c>
       <c r="E59" s="2" t="n"/>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C60" s="12" t="n"/>
       <c r="D60" s="7" t="n">
-        <v>8046.564</v>
+        <v>10317.112</v>
       </c>
       <c r="E60" s="2" t="n"/>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C61" s="12" t="n"/>
       <c r="D61" s="7" t="n">
-        <v>8539.985000000001</v>
+        <v>10949.764</v>
       </c>
       <c r="E61" s="2" t="n"/>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C67" s="12" t="n"/>
       <c r="D67" s="7" t="n">
-        <v>2561.995</v>
+        <v>4590</v>
       </c>
       <c r="E67" s="2" t="n"/>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C68" s="12" t="n"/>
       <c r="D68" s="7" t="n">
-        <v>2918.778</v>
+        <v>5235</v>
       </c>
       <c r="E68" s="2" t="n"/>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C69" s="12" t="n"/>
       <c r="D69" s="7" t="n">
-        <v>3146.511</v>
+        <v>5640</v>
       </c>
       <c r="E69" s="2" t="n"/>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C70" s="12" t="n"/>
       <c r="D70" s="7" t="n">
-        <v>3199.65</v>
+        <v>5730</v>
       </c>
       <c r="E70" s="2" t="n"/>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C71" s="12" t="n"/>
       <c r="D71" s="7" t="n">
-        <v>3601.978</v>
+        <v>6470</v>
       </c>
       <c r="E71" s="2" t="n"/>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C72" s="12" t="n"/>
       <c r="D72" s="7" t="n">
-        <v>3885.879</v>
+        <v>6970</v>
       </c>
       <c r="E72" s="2" t="n"/>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C73" s="12" t="n"/>
       <c r="D73" s="7" t="n">
-        <v>4330.723</v>
+        <v>7762</v>
       </c>
       <c r="E73" s="2" t="n"/>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C74" s="12" t="n"/>
       <c r="D74" s="7" t="n">
-        <v>4649.552</v>
+        <v>8335</v>
       </c>
       <c r="E74" s="2" t="n"/>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C75" s="12" t="n"/>
       <c r="D75" s="7" t="n">
-        <v>5408.655</v>
+        <v>9675</v>
       </c>
       <c r="E75" s="2" t="n"/>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C76" s="12" t="n"/>
       <c r="D76" s="7" t="n">
-        <v>5867.921</v>
+        <v>10520</v>
       </c>
       <c r="E76" s="2" t="n"/>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C77" s="12" t="n"/>
       <c r="D77" s="7" t="n">
-        <v>6528.348</v>
+        <v>11710</v>
       </c>
       <c r="E77" s="2" t="n"/>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C78" s="12" t="n"/>
       <c r="D78" s="7" t="n">
-        <v>7192.562</v>
+        <v>12890</v>
       </c>
       <c r="E78" s="2" t="n"/>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C79" s="12" t="n"/>
       <c r="D79" s="7" t="n">
-        <v>7974.443</v>
+        <v>14300</v>
       </c>
       <c r="E79" s="2" t="n"/>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C80" s="12" t="n"/>
       <c r="D80" s="7" t="n">
-        <v>11007.094</v>
+        <v>19730</v>
       </c>
       <c r="E80" s="2" t="n"/>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C81" s="12" t="n"/>
       <c r="D81" s="7" t="n">
-        <v>12259.619</v>
+        <v>21980</v>
       </c>
       <c r="E81" s="2" t="n"/>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C87" s="12" t="n"/>
       <c r="D87" s="7" t="n">
-        <v>4554.655</v>
+        <v>8140</v>
       </c>
       <c r="E87" s="2" t="n"/>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="C88" s="12" t="n"/>
       <c r="D88" s="7" t="n">
-        <v>4706.481</v>
+        <v>8400</v>
       </c>
       <c r="E88" s="2" t="n"/>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C89" s="12" t="n"/>
       <c r="D89" s="7" t="n">
-        <v>5503.543</v>
+        <v>9840</v>
       </c>
       <c r="E89" s="2" t="n"/>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C90" s="12" t="n"/>
       <c r="D90" s="7" t="n">
-        <v>6034.92</v>
+        <v>10780</v>
       </c>
       <c r="E90" s="2" t="n"/>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C91" s="12" t="n"/>
       <c r="D91" s="7" t="n">
-        <v>6642.209</v>
+        <v>11900</v>
       </c>
       <c r="E91" s="2" t="n"/>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C92" s="12" t="n"/>
       <c r="D92" s="7" t="n">
-        <v>8122.478</v>
+        <v>14540</v>
       </c>
       <c r="E92" s="2" t="n"/>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C93" s="12" t="n"/>
       <c r="D93" s="7" t="n">
-        <v>8445.1</v>
+        <v>15130</v>
       </c>
       <c r="E93" s="2" t="n"/>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C94" s="12" t="n"/>
       <c r="D94" s="7" t="n">
-        <v>9375.004999999999</v>
+        <v>16800</v>
       </c>
       <c r="E94" s="2" t="n"/>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C95" s="12" t="n"/>
       <c r="D95" s="7" t="n">
-        <v>10285.938</v>
+        <v>18400</v>
       </c>
       <c r="E95" s="2" t="n"/>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C96" s="12" t="n"/>
       <c r="D96" s="7" t="n">
-        <v>11386.643</v>
+        <v>20350</v>
       </c>
       <c r="E96" s="2" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B93:C93"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TIRAFONDOS.xlsx
+++ b/server/LISTAS/ma/TIRAFONDOS.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C32" s="12" t="n"/>
       <c r="D32" s="6" t="n">
-        <v>1134.867</v>
+        <v>2236.3</v>
       </c>
       <c r="E32" s="2" t="n"/>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C33" s="12" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>1351.975</v>
+        <v>2673</v>
       </c>
       <c r="E33" s="2" t="n"/>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C34" s="12" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>1514.806</v>
+        <v>2992</v>
       </c>
       <c r="E34" s="2" t="n"/>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C35" s="12" t="n"/>
       <c r="D35" s="7" t="n">
-        <v>1632.082</v>
+        <v>3223</v>
       </c>
       <c r="E35" s="2" t="n"/>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C36" s="12" t="n"/>
       <c r="D36" s="6" t="n">
-        <v>1730.774</v>
+        <v>3410</v>
       </c>
       <c r="E36" s="2" t="n"/>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C37" s="12" t="n"/>
       <c r="D37" s="7" t="n">
-        <v>1943.316</v>
+        <v>3829.1</v>
       </c>
       <c r="E37" s="2" t="n"/>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C38" s="12" t="n"/>
       <c r="D38" s="6" t="n">
-        <v>2133.097</v>
+        <v>4213</v>
       </c>
       <c r="E38" s="2" t="n"/>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C39" s="12" t="n"/>
       <c r="D39" s="7" t="n">
-        <v>2288.71</v>
+        <v>4510</v>
       </c>
       <c r="E39" s="2" t="n"/>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C40" s="12" t="n"/>
       <c r="D40" s="6" t="n">
-        <v>2413.966</v>
+        <v>4752</v>
       </c>
       <c r="E40" s="2" t="n"/>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C46" s="12" t="n"/>
       <c r="D46" s="7" t="n">
-        <v>1430.925</v>
+        <v>2728</v>
       </c>
       <c r="E46" s="2" t="n"/>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C47" s="12" t="n"/>
       <c r="D47" s="7" t="n">
-        <v>1598.684</v>
+        <v>3047</v>
       </c>
       <c r="E47" s="2" t="n"/>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C48" s="12" t="n"/>
       <c r="D48" s="7" t="n">
-        <v>1754.311</v>
+        <v>3344</v>
       </c>
       <c r="E48" s="2" t="n"/>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C49" s="12" t="n"/>
       <c r="D49" s="7" t="n">
-        <v>2042.761</v>
+        <v>3894</v>
       </c>
       <c r="E49" s="2" t="n"/>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C50" s="12" t="n"/>
       <c r="D50" s="7" t="n">
-        <v>2227.991</v>
+        <v>4236.1</v>
       </c>
       <c r="E50" s="2" t="n"/>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C51" s="12" t="n"/>
       <c r="D51" s="7" t="n">
-        <v>2478.491</v>
+        <v>4719</v>
       </c>
       <c r="E51" s="2" t="n"/>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C52" s="12" t="n"/>
       <c r="D52" s="7" t="n">
-        <v>2789.729</v>
+        <v>5297.6</v>
       </c>
       <c r="E52" s="2" t="n"/>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C53" s="12" t="n"/>
       <c r="D53" s="7" t="n">
-        <v>2903.596</v>
+        <v>5522</v>
       </c>
       <c r="E53" s="2" t="n"/>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C54" s="12" t="n"/>
       <c r="D54" s="7" t="n">
-        <v>3207.238</v>
+        <v>6094</v>
       </c>
       <c r="E54" s="2" t="n"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C55" s="12" t="n"/>
       <c r="D55" s="7" t="n">
-        <v>3586.796</v>
+        <v>6809</v>
       </c>
       <c r="E55" s="2" t="n"/>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C56" s="12" t="n"/>
       <c r="D56" s="7" t="n">
-        <v>3890.443</v>
+        <v>7393.1</v>
       </c>
       <c r="E56" s="2" t="n"/>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C57" s="12" t="n"/>
       <c r="D57" s="7" t="n">
-        <v>4364.878</v>
+        <v>8305</v>
       </c>
       <c r="E57" s="2" t="n"/>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C58" s="12" t="n"/>
       <c r="D58" s="7" t="n">
-        <v>4782.39</v>
+        <v>9086</v>
       </c>
       <c r="E58" s="2" t="n"/>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C59" s="12" t="n"/>
       <c r="D59" s="7" t="n">
-        <v>5256.834</v>
+        <v>9955</v>
       </c>
       <c r="E59" s="2" t="n"/>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C60" s="12" t="n"/>
       <c r="D60" s="7" t="n">
-        <v>8046.564</v>
+        <v>11348.823</v>
       </c>
       <c r="E60" s="2" t="n"/>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C61" s="12" t="n"/>
       <c r="D61" s="7" t="n">
-        <v>8539.985000000001</v>
+        <v>12044.74</v>
       </c>
       <c r="E61" s="2" t="n"/>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C67" s="12" t="n"/>
       <c r="D67" s="7" t="n">
-        <v>2561.995</v>
+        <v>5049</v>
       </c>
       <c r="E67" s="2" t="n"/>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C68" s="12" t="n"/>
       <c r="D68" s="7" t="n">
-        <v>2918.778</v>
+        <v>5758.5</v>
       </c>
       <c r="E68" s="2" t="n"/>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C69" s="12" t="n"/>
       <c r="D69" s="7" t="n">
-        <v>3146.511</v>
+        <v>6204</v>
       </c>
       <c r="E69" s="2" t="n"/>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C70" s="12" t="n"/>
       <c r="D70" s="7" t="n">
-        <v>3199.65</v>
+        <v>6303</v>
       </c>
       <c r="E70" s="2" t="n"/>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C71" s="12" t="n"/>
       <c r="D71" s="7" t="n">
-        <v>3601.978</v>
+        <v>7117</v>
       </c>
       <c r="E71" s="2" t="n"/>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C72" s="12" t="n"/>
       <c r="D72" s="7" t="n">
-        <v>3885.879</v>
+        <v>7667</v>
       </c>
       <c r="E72" s="2" t="n"/>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C73" s="12" t="n"/>
       <c r="D73" s="7" t="n">
-        <v>4330.723</v>
+        <v>8538.200000000001</v>
       </c>
       <c r="E73" s="2" t="n"/>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C74" s="12" t="n"/>
       <c r="D74" s="7" t="n">
-        <v>4649.552</v>
+        <v>9168.5</v>
       </c>
       <c r="E74" s="2" t="n"/>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C75" s="12" t="n"/>
       <c r="D75" s="7" t="n">
-        <v>5408.655</v>
+        <v>10642.5</v>
       </c>
       <c r="E75" s="2" t="n"/>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C76" s="12" t="n"/>
       <c r="D76" s="7" t="n">
-        <v>5867.921</v>
+        <v>11572</v>
       </c>
       <c r="E76" s="2" t="n"/>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C77" s="12" t="n"/>
       <c r="D77" s="7" t="n">
-        <v>6528.348</v>
+        <v>12881</v>
       </c>
       <c r="E77" s="2" t="n"/>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C78" s="12" t="n"/>
       <c r="D78" s="7" t="n">
-        <v>7192.562</v>
+        <v>14179</v>
       </c>
       <c r="E78" s="2" t="n"/>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C79" s="12" t="n"/>
       <c r="D79" s="7" t="n">
-        <v>7974.443</v>
+        <v>15730</v>
       </c>
       <c r="E79" s="2" t="n"/>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C80" s="12" t="n"/>
       <c r="D80" s="7" t="n">
-        <v>11007.094</v>
+        <v>21703</v>
       </c>
       <c r="E80" s="2" t="n"/>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C81" s="12" t="n"/>
       <c r="D81" s="7" t="n">
-        <v>12259.619</v>
+        <v>24178</v>
       </c>
       <c r="E81" s="2" t="n"/>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C87" s="12" t="n"/>
       <c r="D87" s="7" t="n">
-        <v>4554.655</v>
+        <v>8954</v>
       </c>
       <c r="E87" s="2" t="n"/>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="C88" s="12" t="n"/>
       <c r="D88" s="7" t="n">
-        <v>4706.481</v>
+        <v>9240</v>
       </c>
       <c r="E88" s="2" t="n"/>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C89" s="12" t="n"/>
       <c r="D89" s="7" t="n">
-        <v>5503.543</v>
+        <v>10824</v>
       </c>
       <c r="E89" s="2" t="n"/>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C90" s="12" t="n"/>
       <c r="D90" s="7" t="n">
-        <v>6034.92</v>
+        <v>11858</v>
       </c>
       <c r="E90" s="2" t="n"/>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C91" s="12" t="n"/>
       <c r="D91" s="7" t="n">
-        <v>6642.209</v>
+        <v>13090</v>
       </c>
       <c r="E91" s="2" t="n"/>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C92" s="12" t="n"/>
       <c r="D92" s="7" t="n">
-        <v>8122.478</v>
+        <v>15994</v>
       </c>
       <c r="E92" s="2" t="n"/>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C93" s="12" t="n"/>
       <c r="D93" s="7" t="n">
-        <v>8445.1</v>
+        <v>16643</v>
       </c>
       <c r="E93" s="2" t="n"/>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C94" s="12" t="n"/>
       <c r="D94" s="7" t="n">
-        <v>9375.004999999999</v>
+        <v>18480</v>
       </c>
       <c r="E94" s="2" t="n"/>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C95" s="12" t="n"/>
       <c r="D95" s="7" t="n">
-        <v>10285.938</v>
+        <v>20240</v>
       </c>
       <c r="E95" s="2" t="n"/>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C96" s="12" t="n"/>
       <c r="D96" s="7" t="n">
-        <v>11386.643</v>
+        <v>22385</v>
       </c>
       <c r="E96" s="2" t="n"/>
     </row>
@@ -1902,68 +1902,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B93:C93"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
